--- a/notebook/dataset/Grogon-2021.xlsx
+++ b/notebook/dataset/Grogon-2021.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Crude-Assay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CrudeCharacterization\notebook\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E7EC63-37C0-4051-B4CC-8AAA17099EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D75881-4CC3-4D9B-B1D7-94E1E7D45501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56182EAD-D44C-45BA-B503-B88B3108C28D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{56182EAD-D44C-45BA-B503-B88B3108C28D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Input-Assay" sheetId="2" r:id="rId2"/>
     <sheet name="Conventional-Results" sheetId="3" r:id="rId3"/>
     <sheet name="Property-Table" sheetId="4" r:id="rId4"/>
@@ -1530,13 +1530,13 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>50.471760852332103</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>52.055197262112003</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>51.263479057222</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1788,12 +1788,12 @@
         <v>36.996436893440901</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>4.2280856578372301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>11.7666535377875</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>4.0201796063938202E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>7.2654278170372705E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>2.18754629880148E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>20.000822972810901</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>38.3312835038952</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>-0.85490974816826704</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>12.284540400098299</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>29.392912168287499</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>38.851101014509403</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>31.755986817203102</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1905,17 +1905,17 @@
         <v>6.2444593977350404</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0.92020641752182697</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>0.48102029581039002</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>25.360363152271098</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>46.998709595780703</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>56.380353484505797</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>88.6328015290363</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>135.18907695874501</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>182.557713945545</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>298.44814984907299</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>355.06729372730001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>527.15704049792498</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>22.775229705408499</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>44.763827282596601</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>53.019619225919001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>81.497569806493701</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>126.498854314787</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>169.59778264867899</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>285.30967912185702</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>340.692556053251</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>507.777608095934</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2152,12 +2152,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2181,9 +2181,9 @@
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>72</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>966.18859053233803</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>6.4769451689404206E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>9.1896105050924803E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>-1.01005406132884</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>46.810409932679903</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1.9632970656599299E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>0.15205318606712601</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>1.31699926878511</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>86.766312338321399</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>50121.482098164299</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>3514.0302678236299</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1260.15601737267</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>46.977203803113703</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>8.7288677703661293</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>7.6897328440425996E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>7.8912941026786901E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>8.6117354145636097E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>12.5763436689807</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>7.5077705200215696</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>16.155279613478498</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>17.848123110840898</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -3880,12 +3880,12 @@
         <v>0.301356265106973</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>102.517828156188</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>72.6277015263273</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>51.385608716139103</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>49.115208350093503</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4238,9 +4238,9 @@
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>72</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>966.18859053233803</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>6.4769451689404206E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>9.1896105050924803E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>-1.01005406132884</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>46.810409932679903</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>1.9632970656599299E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>0.15205318606712601</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>1.31699926878511</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>86.766312338321399</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>50121.482098164299</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>3514.0302678236299</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>1260.15601737267</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>46.977203803113703</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>8.7288677703661293</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>7.6897328440425996E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>7.8912941026786901E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>8.6117354145636097E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>12.5763436689807</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>7.5077705200215696</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>16.155279613478498</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>17.848123110840898</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -5937,12 +5937,12 @@
         <v>0.301356265106973</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>102.517828156188</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>72.6277015263273</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>51.385608716139103</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>49.115208350093503</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6295,9 +6295,9 @@
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:187" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>97</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>280</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>281</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>282</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>283</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>284</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>285</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>286</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>287</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>288</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>289</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>290</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>291</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>292</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>293</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>297</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>298</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>299</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>300</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>301</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>302</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>303</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>304</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>305</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>306</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>307</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>308</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>309</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>310</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>311</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>312</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>313</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>314</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>315</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>316</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>317</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>318</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>319</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>320</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>321</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>322</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>323</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>324</v>
       </c>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>325</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>326</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>327</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>328</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>329</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>330</v>
       </c>
@@ -23225,7 +23225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>331</v>
       </c>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>332</v>
       </c>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>333</v>
       </c>
@@ -24914,7 +24914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>334</v>
       </c>
@@ -25477,7 +25477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>335</v>
       </c>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>336</v>
       </c>
@@ -26603,7 +26603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>337</v>
       </c>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>338</v>
       </c>
@@ -27729,7 +27729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>339</v>
       </c>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>341</v>
       </c>
@@ -29418,7 +29418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>342</v>
       </c>
@@ -29981,7 +29981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>343</v>
       </c>
@@ -30544,7 +30544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>344</v>
       </c>
@@ -31107,7 +31107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>345</v>
       </c>
@@ -31670,7 +31670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>346</v>
       </c>
@@ -32233,7 +32233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>347</v>
       </c>
@@ -32796,7 +32796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>348</v>
       </c>
@@ -33359,7 +33359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>349</v>
       </c>
@@ -33922,7 +33922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>350</v>
       </c>
@@ -34485,7 +34485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>351</v>
       </c>
@@ -35048,7 +35048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>352</v>
       </c>
@@ -35611,7 +35611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>353</v>
       </c>
@@ -36174,7 +36174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>354</v>
       </c>
@@ -36737,7 +36737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>355</v>
       </c>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>356</v>
       </c>
@@ -37863,7 +37863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>357</v>
       </c>
@@ -38426,7 +38426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>358</v>
       </c>
@@ -38869,7 +38869,7 @@
         <v>43493.860169130399</v>
       </c>
     </row>
-    <row r="84" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>359</v>
       </c>
@@ -39312,7 +39312,7 @@
         <v>43320.313458645403</v>
       </c>
     </row>
-    <row r="85" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>360</v>
       </c>
@@ -39755,7 +39755,7 @@
         <v>43130.388950447101</v>
       </c>
     </row>
-    <row r="86" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>361</v>
       </c>
@@ -40198,7 +40198,7 @@
         <v>42943.540755346599</v>
       </c>
     </row>
-    <row r="87" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>362</v>
       </c>
@@ -40647,7 +40647,7 @@
         <v>42759.774776866703</v>
       </c>
     </row>
-    <row r="88" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>363</v>
       </c>
@@ -41096,7 +41096,7 @@
         <v>42579.0857679377</v>
       </c>
     </row>
-    <row r="89" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>364</v>
       </c>
@@ -41545,7 +41545,7 @@
         <v>42401.459195024698</v>
       </c>
     </row>
-    <row r="90" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>365</v>
       </c>
@@ -41994,7 +41994,7 @@
         <v>42226.872821080899</v>
       </c>
     </row>
-    <row r="91" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>366</v>
       </c>
@@ -42443,7 +42443,7 @@
         <v>42055.298050463498</v>
       </c>
     </row>
-    <row r="92" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>367</v>
       </c>
@@ -42892,7 +42892,7 @@
         <v>41886.701072055803</v>
       </c>
     </row>
-    <row r="93" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>368</v>
       </c>
@@ -43341,7 +43341,7 @@
         <v>41721.043831098897</v>
       </c>
     </row>
-    <row r="94" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>369</v>
       </c>
@@ -43803,9 +43803,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>72</v>
       </c>
@@ -43813,7 +43813,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -43827,7 +43827,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -43841,7 +43841,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>370</v>
       </c>
@@ -43855,7 +43855,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>372</v>
       </c>
@@ -43869,7 +43869,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>374</v>
       </c>
@@ -43883,7 +43883,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>376</v>
       </c>
@@ -43891,7 +43891,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -43905,7 +43905,7 @@
         <v>22.775229705408499</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
@@ -43919,7 +43919,7 @@
         <v>44.763827282596601</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -43933,7 +43933,7 @@
         <v>53.019619225919001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>30</v>
       </c>
@@ -43947,7 +43947,7 @@
         <v>81.497569806493701</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>50</v>
       </c>
@@ -43961,7 +43961,7 @@
         <v>126.498854314787</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>70</v>
       </c>
@@ -43975,7 +43975,7 @@
         <v>169.59778264867899</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>90</v>
       </c>
@@ -43989,7 +43989,7 @@
         <v>285.30967912185702</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>95</v>
       </c>
@@ -44003,7 +44003,7 @@
         <v>340.692556053251</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>100</v>
       </c>
